--- a/API Files/Acuity Research/Deal.xlsx
+++ b/API Files/Acuity Research/Deal.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{675239AE-FB29-4150-9963-F24A7337A175}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Deal" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
+    <sheet name="Deal" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="447">
   <si>
     <t>Deal NSAdmin Company Record01</t>
   </si>
@@ -1233,18 +1232,6 @@
   </si>
   <si>
     <t>T18:30:00.000Z</t>
-  </si>
-  <si>
-    <t>Custom_Pipeline_Text__c</t>
-  </si>
-  <si>
-    <t>Custom_Pipeline_TA__c</t>
-  </si>
-  <si>
-    <t>Custom_Pipeline_Email__c</t>
-  </si>
-  <si>
-    <t>Custom_Pipeline_Phone__c</t>
   </si>
   <si>
     <t xml:space="preserve"> navpeII__Source_Company__c</t>
@@ -1296,9 +1283,6 @@
     <t>Deal with Limited Partner record type rich text area field. Understand the requirements of the business directory you are writing your company profile for. Some directories include everything in one place, while others provide additional fields for certain information like location, category and amenities.</t>
   </si>
   <si>
-    <t>Custom_Pipeline_RTA__c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deal with Advisor record type long text area field. If you are creating a company profile to place on your business website, you should structure it carefully so that users can easily navigate through important </t>
   </si>
   <si>
@@ -1340,9 +1324,6 @@
     <t>navpeII__Pipeline_Comments__c</t>
   </si>
   <si>
-    <t>Custom_Pipeline_LTA__c</t>
-  </si>
-  <si>
     <t>Created</t>
   </si>
   <si>
@@ -1368,16 +1349,34 @@
   </si>
   <si>
     <t>BHEL Eelectrical Special Characters</t>
+  </si>
+  <si>
+    <t>Custom_Deal_Email__c</t>
+  </si>
+  <si>
+    <t>Custom_Deal_Phone__c</t>
+  </si>
+  <si>
+    <t>Custom_Deal_LTA__c</t>
+  </si>
+  <si>
+    <t>Custom_Deal_Text__c</t>
+  </si>
+  <si>
+    <t>Custom_Deal_TA__c</t>
+  </si>
+  <si>
+    <t>Custom_Deal_RTA__c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,6 +1513,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF181818"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1817,109 +1822,107 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1936,10 +1939,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1974,7 +1977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2009,7 +2012,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2103,21 +2106,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2134,7 +2137,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2186,30 +2189,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.85546875" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="255.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="42.75" r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2226,43 +2227,40 @@
         <v>400</v>
       </c>
       <c r="F1" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="G1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>401</v>
       </c>
       <c r="I1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>402</v>
       </c>
       <c r="K1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P1" t="s">
         <v>405</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="O1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>438</v>
-      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2279,7 @@
       <c r="G2">
         <v>1234567810</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>44839</v>
       </c>
       <c r="I2" t="s">
@@ -2291,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -2299,20 +2297,17 @@
       <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>425</v>
+      <c r="N2" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P2">
         <v>11111</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>438</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2326,7 @@
       <c r="G3">
         <v>1234567810</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>44839</v>
       </c>
       <c r="I3" t="s">
@@ -2341,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -2349,20 +2344,17 @@
       <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>425</v>
+      <c r="N3" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P3">
         <v>11111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>438</v>
-      </c>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -2381,7 +2373,7 @@
       <c r="G4">
         <v>1234567810</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>44839</v>
       </c>
       <c r="I4" t="s">
@@ -2391,7 +2383,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -2399,20 +2391,17 @@
       <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>425</v>
+      <c r="N4" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P4">
         <v>11111</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>438</v>
-      </c>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -2431,7 +2420,7 @@
       <c r="G5">
         <v>1234567810</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>44839</v>
       </c>
       <c r="I5" t="s">
@@ -2441,7 +2430,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -2449,20 +2438,17 @@
       <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>425</v>
+      <c r="N5" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P5">
         <v>11111</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>438</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -2481,7 +2467,7 @@
       <c r="G6">
         <v>1234567810</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>44839</v>
       </c>
       <c r="I6" t="s">
@@ -2491,7 +2477,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -2499,20 +2485,17 @@
       <c r="M6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>425</v>
+      <c r="N6" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P6">
         <v>11111</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>438</v>
-      </c>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -2531,7 +2514,7 @@
       <c r="G7">
         <v>1234567810</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>44839</v>
       </c>
       <c r="I7" t="s">
@@ -2541,7 +2524,7 @@
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -2549,20 +2532,17 @@
       <c r="M7" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>425</v>
+      <c r="N7" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P7">
         <v>11111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>438</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -2581,7 +2561,7 @@
       <c r="G8">
         <v>1234567810</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>44839</v>
       </c>
       <c r="I8" t="s">
@@ -2591,7 +2571,7 @@
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -2599,20 +2579,17 @@
       <c r="M8" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>425</v>
+      <c r="N8" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P8">
         <v>11111</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>438</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -2631,7 +2608,7 @@
       <c r="G9">
         <v>1234567810</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>44839</v>
       </c>
       <c r="I9" t="s">
@@ -2641,7 +2618,7 @@
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -2649,20 +2626,17 @@
       <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>425</v>
+      <c r="N9" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P9">
         <v>11111</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>438</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2655,7 @@
       <c r="G10">
         <v>1234567810</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>44839</v>
       </c>
       <c r="I10" t="s">
@@ -2691,7 +2665,7 @@
         <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -2699,20 +2673,17 @@
       <c r="M10" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>425</v>
+      <c r="N10" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P10">
         <v>11111</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>438</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -2731,7 +2702,7 @@
       <c r="G11">
         <v>1234567810</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>44839</v>
       </c>
       <c r="I11" t="s">
@@ -2741,7 +2712,7 @@
         <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -2749,20 +2720,17 @@
       <c r="M11" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>425</v>
+      <c r="N11" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="O11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P11">
         <v>11111</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>438</v>
-      </c>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -2781,14 +2749,14 @@
       <c r="G12">
         <v>5678901201</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>44839</v>
       </c>
       <c r="I12" t="s">
         <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L12" t="s">
         <v>52</v>
@@ -2797,19 +2765,16 @@
         <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P12">
         <v>11111</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>438</v>
-      </c>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -2828,11 +2793,11 @@
       <c r="G13">
         <v>5678901201</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>44839</v>
       </c>
       <c r="K13" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L13" t="s">
         <v>57</v>
@@ -2841,19 +2806,16 @@
         <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P13">
         <v>11111</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>438</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -2872,11 +2834,11 @@
       <c r="G14">
         <v>5678901201</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>44839</v>
       </c>
       <c r="K14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L14" t="s">
         <v>57</v>
@@ -2885,19 +2847,16 @@
         <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P14">
         <v>11111</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>438</v>
-      </c>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -2916,11 +2875,11 @@
       <c r="G15">
         <v>5678901201</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>44839</v>
       </c>
       <c r="K15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L15" t="s">
         <v>57</v>
@@ -2929,19 +2888,16 @@
         <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P15">
         <v>11111</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>438</v>
-      </c>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>64</v>
       </c>
@@ -2960,11 +2916,11 @@
       <c r="G16">
         <v>5678901201</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>44839</v>
       </c>
       <c r="K16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L16" t="s">
         <v>57</v>
@@ -2973,19 +2929,16 @@
         <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P16">
         <v>11111</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>438</v>
-      </c>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -3004,11 +2957,11 @@
       <c r="G17">
         <v>5678901201</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>44839</v>
       </c>
       <c r="K17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L17" t="s">
         <v>57</v>
@@ -3017,19 +2970,16 @@
         <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P17">
         <v>11111</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>438</v>
-      </c>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -3048,11 +2998,11 @@
       <c r="G18">
         <v>5678901201</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>44839</v>
       </c>
       <c r="K18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L18" t="s">
         <v>57</v>
@@ -3061,19 +3011,16 @@
         <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P18">
         <v>11111</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>438</v>
-      </c>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>73</v>
       </c>
@@ -3092,11 +3039,11 @@
       <c r="G19">
         <v>5678901201</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>44839</v>
       </c>
       <c r="K19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L19" t="s">
         <v>57</v>
@@ -3105,19 +3052,16 @@
         <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O19" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P19">
         <v>11111</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>438</v>
-      </c>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -3136,11 +3080,11 @@
       <c r="G20">
         <v>5678901201</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>44839</v>
       </c>
       <c r="K20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L20" t="s">
         <v>57</v>
@@ -3149,19 +3093,16 @@
         <v>53</v>
       </c>
       <c r="N20" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P20">
         <v>11111</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>438</v>
-      </c>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>80</v>
       </c>
@@ -3180,11 +3121,11 @@
       <c r="G21">
         <v>5678901201</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>44839</v>
       </c>
       <c r="K21" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L21" t="s">
         <v>57</v>
@@ -3193,19 +3134,16 @@
         <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O21" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P21">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>438</v>
-      </c>
+    <row r="22" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>83</v>
       </c>
@@ -3224,7 +3162,7 @@
       <c r="G22">
         <v>3456789013</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>44839</v>
       </c>
       <c r="L22" t="s">
@@ -3233,20 +3171,17 @@
       <c r="M22" t="s">
         <v>88</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>426</v>
+      <c r="N22" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P22">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>438</v>
-      </c>
+    <row r="23" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -3265,7 +3200,7 @@
       <c r="G23">
         <v>3456789013</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>44839</v>
       </c>
       <c r="L23" t="s">
@@ -3274,20 +3209,17 @@
       <c r="M23" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>426</v>
+      <c r="N23" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P23">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>438</v>
-      </c>
+    <row r="24" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -3306,7 +3238,7 @@
       <c r="G24">
         <v>3456789013</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>44839</v>
       </c>
       <c r="L24" t="s">
@@ -3315,20 +3247,17 @@
       <c r="M24" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>426</v>
+      <c r="N24" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O24" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P24">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>438</v>
-      </c>
+    <row r="25" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>96</v>
       </c>
@@ -3347,7 +3276,7 @@
       <c r="G25">
         <v>3456789013</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>44839</v>
       </c>
       <c r="L25" t="s">
@@ -3356,20 +3285,17 @@
       <c r="M25" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="4" t="s">
-        <v>426</v>
+      <c r="N25" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P25">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>438</v>
-      </c>
+    <row r="26" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -3388,7 +3314,7 @@
       <c r="G26">
         <v>3456789013</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>44839</v>
       </c>
       <c r="L26" t="s">
@@ -3397,20 +3323,17 @@
       <c r="M26" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>426</v>
+      <c r="N26" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P26">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>438</v>
-      </c>
+    <row r="27" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>102</v>
       </c>
@@ -3429,7 +3352,7 @@
       <c r="G27">
         <v>3456789013</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>44839</v>
       </c>
       <c r="L27" t="s">
@@ -3438,20 +3361,17 @@
       <c r="M27" t="s">
         <v>88</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>426</v>
+      <c r="N27" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O27" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P27">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>438</v>
-      </c>
+    <row r="28" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -3470,7 +3390,7 @@
       <c r="G28">
         <v>3456789013</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>44839</v>
       </c>
       <c r="L28" t="s">
@@ -3479,20 +3399,17 @@
       <c r="M28" t="s">
         <v>88</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>426</v>
+      <c r="N28" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O28" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P28">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>438</v>
-      </c>
+    <row r="29" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>108</v>
       </c>
@@ -3511,7 +3428,7 @@
       <c r="G29">
         <v>3456789013</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>44839</v>
       </c>
       <c r="L29" t="s">
@@ -3520,20 +3437,17 @@
       <c r="M29" t="s">
         <v>88</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>426</v>
+      <c r="N29" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O29" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P29">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>438</v>
-      </c>
+    <row r="30" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>111</v>
       </c>
@@ -3552,7 +3466,7 @@
       <c r="G30">
         <v>3456789013</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>44839</v>
       </c>
       <c r="L30" t="s">
@@ -3561,20 +3475,17 @@
       <c r="M30" t="s">
         <v>88</v>
       </c>
-      <c r="N30" s="4" t="s">
-        <v>426</v>
+      <c r="N30" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O30" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P30">
         <v>11111</v>
       </c>
     </row>
-    <row ht="30" r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>438</v>
-      </c>
+    <row r="31" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>114</v>
       </c>
@@ -3593,7 +3504,7 @@
       <c r="G31">
         <v>3456789013</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>44839</v>
       </c>
       <c r="L31" t="s">
@@ -3602,20 +3513,17 @@
       <c r="M31" t="s">
         <v>88</v>
       </c>
-      <c r="N31" s="4" t="s">
-        <v>426</v>
+      <c r="N31" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="O31" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P31">
         <v>11111</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>438</v>
-      </c>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>117</v>
       </c>
@@ -3634,7 +3542,7 @@
       <c r="G32">
         <v>3242342003</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>44839</v>
       </c>
       <c r="L32" t="s">
@@ -3644,19 +3552,16 @@
         <v>121</v>
       </c>
       <c r="N32" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P32">
         <v>22222</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>438</v>
-      </c>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>122</v>
       </c>
@@ -3675,7 +3580,7 @@
       <c r="G33">
         <v>3242342003</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>44839</v>
       </c>
       <c r="L33" t="s">
@@ -3685,19 +3590,16 @@
         <v>121</v>
       </c>
       <c r="N33" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P33">
         <v>22222</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>438</v>
-      </c>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>125</v>
       </c>
@@ -3716,7 +3618,7 @@
       <c r="G34">
         <v>3242342003</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>44839</v>
       </c>
       <c r="L34" t="s">
@@ -3726,19 +3628,16 @@
         <v>121</v>
       </c>
       <c r="N34" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O34" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P34">
         <v>22222</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>438</v>
-      </c>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>127</v>
       </c>
@@ -3757,7 +3656,7 @@
       <c r="G35">
         <v>3242342003</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>44839</v>
       </c>
       <c r="L35" t="s">
@@ -3767,19 +3666,16 @@
         <v>121</v>
       </c>
       <c r="N35" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O35" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P35">
         <v>22222</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>438</v>
-      </c>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>129</v>
       </c>
@@ -3798,7 +3694,7 @@
       <c r="G36">
         <v>3242342003</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>44839</v>
       </c>
       <c r="L36" t="s">
@@ -3808,19 +3704,16 @@
         <v>121</v>
       </c>
       <c r="N36" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P36">
         <v>22222</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>438</v>
-      </c>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>131</v>
       </c>
@@ -3839,7 +3732,7 @@
       <c r="G37">
         <v>3242342003</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>44839</v>
       </c>
       <c r="L37" t="s">
@@ -3849,19 +3742,16 @@
         <v>121</v>
       </c>
       <c r="N37" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O37" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P37">
         <v>22222</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>438</v>
-      </c>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>134</v>
       </c>
@@ -3880,7 +3770,7 @@
       <c r="G38">
         <v>3242342003</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>44839</v>
       </c>
       <c r="L38" t="s">
@@ -3890,19 +3780,16 @@
         <v>121</v>
       </c>
       <c r="N38" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P38">
         <v>22222</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>438</v>
-      </c>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>137</v>
       </c>
@@ -3921,7 +3808,7 @@
       <c r="G39">
         <v>3242342003</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>44839</v>
       </c>
       <c r="L39" t="s">
@@ -3931,19 +3818,16 @@
         <v>121</v>
       </c>
       <c r="N39" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P39">
         <v>22222</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>438</v>
-      </c>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>140</v>
       </c>
@@ -3962,7 +3846,7 @@
       <c r="G40">
         <v>3242342003</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>44839</v>
       </c>
       <c r="L40" t="s">
@@ -3972,19 +3856,16 @@
         <v>121</v>
       </c>
       <c r="N40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O40" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P40">
         <v>22222</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>438</v>
-      </c>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>143</v>
       </c>
@@ -4003,7 +3884,7 @@
       <c r="G41">
         <v>3242342003</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>44839</v>
       </c>
       <c r="L41" t="s">
@@ -4013,19 +3894,16 @@
         <v>121</v>
       </c>
       <c r="N41" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O41" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P41">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>438</v>
-      </c>
+    <row r="42" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>146</v>
       </c>
@@ -4044,7 +3922,7 @@
       <c r="G42">
         <v>4543542233</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>44839</v>
       </c>
       <c r="L42" t="s">
@@ -4053,20 +3931,17 @@
       <c r="M42" t="s">
         <v>151</v>
       </c>
-      <c r="N42" s="4" t="s">
-        <v>428</v>
+      <c r="N42" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O42" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P42">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>438</v>
-      </c>
+    <row r="43" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>152</v>
       </c>
@@ -4085,7 +3960,7 @@
       <c r="G43">
         <v>4543542233</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>44839</v>
       </c>
       <c r="L43" t="s">
@@ -4094,20 +3969,17 @@
       <c r="M43" t="s">
         <v>151</v>
       </c>
-      <c r="N43" s="4" t="s">
-        <v>428</v>
+      <c r="N43" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O43" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P43">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>438</v>
-      </c>
+    <row r="44" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>156</v>
       </c>
@@ -4126,7 +3998,7 @@
       <c r="G44">
         <v>4543542233</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>44839</v>
       </c>
       <c r="L44" t="s">
@@ -4135,20 +4007,17 @@
       <c r="M44" t="s">
         <v>151</v>
       </c>
-      <c r="N44" s="4" t="s">
-        <v>428</v>
+      <c r="N44" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O44" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P44">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>438</v>
-      </c>
+    <row r="45" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>159</v>
       </c>
@@ -4167,7 +4036,7 @@
       <c r="G45">
         <v>4543542233</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>44839</v>
       </c>
       <c r="L45" t="s">
@@ -4176,20 +4045,17 @@
       <c r="M45" t="s">
         <v>151</v>
       </c>
-      <c r="N45" s="4" t="s">
-        <v>428</v>
+      <c r="N45" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O45" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P45">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>438</v>
-      </c>
+    <row r="46" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>162</v>
       </c>
@@ -4208,7 +4074,7 @@
       <c r="G46">
         <v>4543542233</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>44839</v>
       </c>
       <c r="L46" t="s">
@@ -4217,20 +4083,17 @@
       <c r="M46" t="s">
         <v>151</v>
       </c>
-      <c r="N46" s="4" t="s">
-        <v>428</v>
+      <c r="N46" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O46" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P46">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>438</v>
-      </c>
+    <row r="47" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>165</v>
       </c>
@@ -4249,7 +4112,7 @@
       <c r="G47">
         <v>4543542233</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>44839</v>
       </c>
       <c r="L47" t="s">
@@ -4258,20 +4121,17 @@
       <c r="M47" t="s">
         <v>151</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>428</v>
+      <c r="N47" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P47">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>438</v>
-      </c>
+    <row r="48" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>168</v>
       </c>
@@ -4290,7 +4150,7 @@
       <c r="G48">
         <v>4543542233</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>44839</v>
       </c>
       <c r="L48" t="s">
@@ -4299,20 +4159,17 @@
       <c r="M48" t="s">
         <v>151</v>
       </c>
-      <c r="N48" s="4" t="s">
-        <v>428</v>
+      <c r="N48" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P48">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>438</v>
-      </c>
+    <row r="49" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>171</v>
       </c>
@@ -4331,7 +4188,7 @@
       <c r="G49">
         <v>4543542233</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>44839</v>
       </c>
       <c r="L49" t="s">
@@ -4340,20 +4197,17 @@
       <c r="M49" t="s">
         <v>151</v>
       </c>
-      <c r="N49" s="4" t="s">
-        <v>428</v>
+      <c r="N49" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O49" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P49">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>438</v>
-      </c>
+    <row r="50" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>174</v>
       </c>
@@ -4372,7 +4226,7 @@
       <c r="G50">
         <v>4543542233</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>44839</v>
       </c>
       <c r="L50" t="s">
@@ -4381,20 +4235,17 @@
       <c r="M50" t="s">
         <v>151</v>
       </c>
-      <c r="N50" s="4" t="s">
-        <v>428</v>
+      <c r="N50" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O50" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P50">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>438</v>
-      </c>
+    <row r="51" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>177</v>
       </c>
@@ -4413,7 +4264,7 @@
       <c r="G51">
         <v>4543542233</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>44839</v>
       </c>
       <c r="L51" t="s">
@@ -4422,20 +4273,17 @@
       <c r="M51" t="s">
         <v>151</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>428</v>
+      <c r="N51" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O51" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P51">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>438</v>
-      </c>
+    <row r="52" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>180</v>
       </c>
@@ -4454,7 +4302,7 @@
       <c r="G52">
         <v>2123123122</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>44839</v>
       </c>
       <c r="L52" t="s">
@@ -4463,20 +4311,17 @@
       <c r="M52" t="s">
         <v>185</v>
       </c>
-      <c r="N52" s="4" t="s">
-        <v>428</v>
+      <c r="N52" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O52" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P52">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>438</v>
-      </c>
+    <row r="53" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>186</v>
       </c>
@@ -4495,7 +4340,7 @@
       <c r="G53">
         <v>2123123122</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>44839</v>
       </c>
       <c r="L53" t="s">
@@ -4504,20 +4349,17 @@
       <c r="M53" t="s">
         <v>185</v>
       </c>
-      <c r="N53" s="4" t="s">
-        <v>428</v>
+      <c r="N53" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O53" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P53">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>438</v>
-      </c>
+    <row r="54" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>190</v>
       </c>
@@ -4536,7 +4378,7 @@
       <c r="G54">
         <v>2123123122</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>44839</v>
       </c>
       <c r="L54" t="s">
@@ -4545,20 +4387,17 @@
       <c r="M54" t="s">
         <v>185</v>
       </c>
-      <c r="N54" s="4" t="s">
-        <v>428</v>
+      <c r="N54" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O54" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P54">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>438</v>
-      </c>
+    <row r="55" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>193</v>
       </c>
@@ -4577,7 +4416,7 @@
       <c r="G55">
         <v>2123123122</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>44839</v>
       </c>
       <c r="L55" t="s">
@@ -4586,20 +4425,17 @@
       <c r="M55" t="s">
         <v>185</v>
       </c>
-      <c r="N55" s="4" t="s">
-        <v>428</v>
+      <c r="N55" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O55" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P55">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>438</v>
-      </c>
+    <row r="56" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>196</v>
       </c>
@@ -4618,7 +4454,7 @@
       <c r="G56">
         <v>2123123122</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>44839</v>
       </c>
       <c r="L56" t="s">
@@ -4627,20 +4463,17 @@
       <c r="M56" t="s">
         <v>185</v>
       </c>
-      <c r="N56" s="4" t="s">
-        <v>428</v>
+      <c r="N56" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O56" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P56">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>438</v>
-      </c>
+    <row r="57" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>199</v>
       </c>
@@ -4659,7 +4492,7 @@
       <c r="G57">
         <v>2123123122</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>44839</v>
       </c>
       <c r="L57" t="s">
@@ -4668,20 +4501,17 @@
       <c r="M57" t="s">
         <v>185</v>
       </c>
-      <c r="N57" s="4" t="s">
-        <v>428</v>
+      <c r="N57" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O57" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P57">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>438</v>
-      </c>
+    <row r="58" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>202</v>
       </c>
@@ -4700,7 +4530,7 @@
       <c r="G58">
         <v>2123123122</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>44839</v>
       </c>
       <c r="L58" t="s">
@@ -4709,20 +4539,17 @@
       <c r="M58" t="s">
         <v>185</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>428</v>
+      <c r="N58" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O58" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P58">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>438</v>
-      </c>
+    <row r="59" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>205</v>
       </c>
@@ -4741,7 +4568,7 @@
       <c r="G59">
         <v>2123123122</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>44839</v>
       </c>
       <c r="L59" t="s">
@@ -4750,20 +4577,17 @@
       <c r="M59" t="s">
         <v>185</v>
       </c>
-      <c r="N59" s="4" t="s">
-        <v>428</v>
+      <c r="N59" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O59" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P59">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>438</v>
-      </c>
+    <row r="60" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>208</v>
       </c>
@@ -4782,7 +4606,7 @@
       <c r="G60">
         <v>2123123122</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>44839</v>
       </c>
       <c r="L60" t="s">
@@ -4791,20 +4615,17 @@
       <c r="M60" t="s">
         <v>185</v>
       </c>
-      <c r="N60" s="4" t="s">
-        <v>428</v>
+      <c r="N60" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O60" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P60">
         <v>22222</v>
       </c>
     </row>
-    <row ht="30" r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>438</v>
-      </c>
+    <row r="61" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>211</v>
       </c>
@@ -4823,7 +4644,7 @@
       <c r="G61">
         <v>2123123122</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="2">
         <v>44839</v>
       </c>
       <c r="L61" t="s">
@@ -4832,20 +4653,17 @@
       <c r="M61" t="s">
         <v>185</v>
       </c>
-      <c r="N61" s="4" t="s">
-        <v>428</v>
+      <c r="N61" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="O61" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P61">
         <v>22222</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>438</v>
-      </c>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>214</v>
       </c>
@@ -4864,7 +4682,7 @@
       <c r="G62">
         <v>2222222002</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>44839</v>
       </c>
       <c r="I62" t="s">
@@ -4877,19 +4695,16 @@
         <v>217</v>
       </c>
       <c r="N62" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O62" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P62">
         <v>33333</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>438</v>
-      </c>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>218</v>
       </c>
@@ -4908,7 +4723,7 @@
       <c r="G63">
         <v>2222222002</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>44839</v>
       </c>
       <c r="I63" t="s">
@@ -4921,19 +4736,16 @@
         <v>217</v>
       </c>
       <c r="N63" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O63" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P63">
         <v>33333</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>438</v>
-      </c>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>222</v>
       </c>
@@ -4952,7 +4764,7 @@
       <c r="G64">
         <v>2222222002</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>44839</v>
       </c>
       <c r="I64" t="s">
@@ -4965,19 +4777,16 @@
         <v>217</v>
       </c>
       <c r="N64" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O64" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P64">
         <v>33333</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>438</v>
-      </c>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>225</v>
       </c>
@@ -4996,7 +4805,7 @@
       <c r="G65">
         <v>2222222002</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>44839</v>
       </c>
       <c r="I65" t="s">
@@ -5009,19 +4818,16 @@
         <v>217</v>
       </c>
       <c r="N65" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O65" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P65">
         <v>33333</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>438</v>
-      </c>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>228</v>
       </c>
@@ -5040,7 +4846,7 @@
       <c r="G66">
         <v>2222222002</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="2">
         <v>44839</v>
       </c>
       <c r="I66" t="s">
@@ -5053,19 +4859,16 @@
         <v>217</v>
       </c>
       <c r="N66" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O66" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P66">
         <v>33333</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>438</v>
-      </c>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>231</v>
       </c>
@@ -5084,7 +4887,7 @@
       <c r="G67">
         <v>2222222002</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <v>44839</v>
       </c>
       <c r="I67" t="s">
@@ -5097,19 +4900,16 @@
         <v>217</v>
       </c>
       <c r="N67" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O67" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P67">
         <v>33333</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>438</v>
-      </c>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>234</v>
       </c>
@@ -5128,7 +4928,7 @@
       <c r="G68">
         <v>2222222002</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>44839</v>
       </c>
       <c r="I68" t="s">
@@ -5141,19 +4941,16 @@
         <v>217</v>
       </c>
       <c r="N68" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O68" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P68">
         <v>33333</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>438</v>
-      </c>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>237</v>
       </c>
@@ -5172,7 +4969,7 @@
       <c r="G69">
         <v>2222222002</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>44839</v>
       </c>
       <c r="I69" t="s">
@@ -5185,19 +4982,16 @@
         <v>217</v>
       </c>
       <c r="N69" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O69" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P69">
         <v>33333</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>438</v>
-      </c>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>240</v>
       </c>
@@ -5216,7 +5010,7 @@
       <c r="G70">
         <v>2222222002</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <v>44839</v>
       </c>
       <c r="I70" t="s">
@@ -5229,19 +5023,16 @@
         <v>217</v>
       </c>
       <c r="N70" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O70" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P70">
         <v>33333</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>438</v>
-      </c>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>243</v>
       </c>
@@ -5260,7 +5051,7 @@
       <c r="G71">
         <v>2222222002</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <v>44839</v>
       </c>
       <c r="I71" t="s">
@@ -5273,19 +5064,16 @@
         <v>217</v>
       </c>
       <c r="N71" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O71" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P71">
         <v>33333</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>438</v>
-      </c>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>246</v>
       </c>
@@ -5304,7 +5092,7 @@
       <c r="G72">
         <v>1234567810</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="2">
         <v>44839</v>
       </c>
       <c r="L72" t="s">
@@ -5314,16 +5102,13 @@
         <v>8</v>
       </c>
       <c r="N72" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O72" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>438</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>248</v>
       </c>
@@ -5342,7 +5127,7 @@
       <c r="G73">
         <v>1234567810</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="2">
         <v>44839</v>
       </c>
       <c r="L73" t="s">
@@ -5352,16 +5137,13 @@
         <v>8</v>
       </c>
       <c r="N73" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O73" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>438</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>250</v>
       </c>
@@ -5380,7 +5162,7 @@
       <c r="G74">
         <v>1234567810</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>44839</v>
       </c>
       <c r="L74" t="s">
@@ -5390,16 +5172,13 @@
         <v>8</v>
       </c>
       <c r="N74" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O74" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>438</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>252</v>
       </c>
@@ -5418,7 +5197,7 @@
       <c r="G75">
         <v>1234567810</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <v>44839</v>
       </c>
       <c r="L75" t="s">
@@ -5428,16 +5207,13 @@
         <v>8</v>
       </c>
       <c r="N75" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O75" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>438</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>254</v>
       </c>
@@ -5456,7 +5232,7 @@
       <c r="G76">
         <v>1234567810</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <v>44839</v>
       </c>
       <c r="L76" t="s">
@@ -5466,16 +5242,13 @@
         <v>8</v>
       </c>
       <c r="N76" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O76" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>438</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>256</v>
       </c>
@@ -5494,7 +5267,7 @@
       <c r="G77">
         <v>5678901201</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>44839</v>
       </c>
       <c r="L77" t="s">
@@ -5504,16 +5277,13 @@
         <v>53</v>
       </c>
       <c r="N77" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O77" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>438</v>
-      </c>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>258</v>
       </c>
@@ -5532,7 +5302,7 @@
       <c r="G78">
         <v>5678901201</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="2">
         <v>44839</v>
       </c>
       <c r="L78" t="s">
@@ -5542,16 +5312,13 @@
         <v>53</v>
       </c>
       <c r="N78" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O78" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>438</v>
-      </c>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>260</v>
       </c>
@@ -5570,7 +5337,7 @@
       <c r="G79">
         <v>5678901201</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>44839</v>
       </c>
       <c r="L79" t="s">
@@ -5580,16 +5347,13 @@
         <v>53</v>
       </c>
       <c r="N79" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O79" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>438</v>
-      </c>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>262</v>
       </c>
@@ -5608,7 +5372,7 @@
       <c r="G80">
         <v>5678901201</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="2">
         <v>44839</v>
       </c>
       <c r="L80" t="s">
@@ -5618,16 +5382,13 @@
         <v>53</v>
       </c>
       <c r="N80" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O80" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>438</v>
-      </c>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>264</v>
       </c>
@@ -5646,7 +5407,7 @@
       <c r="G81">
         <v>5678901201</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <v>44839</v>
       </c>
       <c r="L81" t="s">
@@ -5656,16 +5417,13 @@
         <v>53</v>
       </c>
       <c r="N81" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O81" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>438</v>
-      </c>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>266</v>
       </c>
@@ -5684,7 +5442,7 @@
       <c r="G82">
         <v>3456789013</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="2">
         <v>44839</v>
       </c>
       <c r="L82" t="s">
@@ -5694,16 +5452,13 @@
         <v>88</v>
       </c>
       <c r="N82" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O82" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>438</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>268</v>
       </c>
@@ -5722,7 +5477,7 @@
       <c r="G83">
         <v>3456789013</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="2">
         <v>44839</v>
       </c>
       <c r="L83" t="s">
@@ -5732,16 +5487,13 @@
         <v>88</v>
       </c>
       <c r="N83" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O83" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>438</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>270</v>
       </c>
@@ -5760,7 +5512,7 @@
       <c r="G84">
         <v>3456789013</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="2">
         <v>44839</v>
       </c>
       <c r="L84" t="s">
@@ -5770,16 +5522,13 @@
         <v>88</v>
       </c>
       <c r="N84" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O84" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>438</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>272</v>
       </c>
@@ -5798,7 +5547,7 @@
       <c r="G85">
         <v>3456789013</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="2">
         <v>44839</v>
       </c>
       <c r="L85" t="s">
@@ -5808,16 +5557,13 @@
         <v>88</v>
       </c>
       <c r="N85" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O85" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>438</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>274</v>
       </c>
@@ -5836,7 +5582,7 @@
       <c r="G86">
         <v>3456789013</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="2">
         <v>44839</v>
       </c>
       <c r="L86" t="s">
@@ -5846,16 +5592,13 @@
         <v>88</v>
       </c>
       <c r="N86" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O86" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>438</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>276</v>
       </c>
@@ -5874,7 +5617,7 @@
       <c r="G87">
         <v>3242342003</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="2">
         <v>44839</v>
       </c>
       <c r="I87" t="s">
@@ -5887,16 +5630,13 @@
         <v>121</v>
       </c>
       <c r="N87" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O87" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>438</v>
-      </c>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>278</v>
       </c>
@@ -5915,7 +5655,7 @@
       <c r="G88">
         <v>3242342003</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="2">
         <v>44839</v>
       </c>
       <c r="I88" t="s">
@@ -5928,16 +5668,13 @@
         <v>121</v>
       </c>
       <c r="N88" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O88" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>438</v>
-      </c>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>280</v>
       </c>
@@ -5956,7 +5693,7 @@
       <c r="G89">
         <v>3242342003</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <v>44839</v>
       </c>
       <c r="I89" t="s">
@@ -5969,16 +5706,13 @@
         <v>121</v>
       </c>
       <c r="N89" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O89" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>438</v>
-      </c>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>282</v>
       </c>
@@ -5997,7 +5731,7 @@
       <c r="G90">
         <v>3242342003</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="2">
         <v>44839</v>
       </c>
       <c r="I90" t="s">
@@ -6010,16 +5744,13 @@
         <v>121</v>
       </c>
       <c r="N90" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O90" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>438</v>
-      </c>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>284</v>
       </c>
@@ -6038,7 +5769,7 @@
       <c r="G91">
         <v>3242342003</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="2">
         <v>44839</v>
       </c>
       <c r="I91" t="s">
@@ -6051,16 +5782,13 @@
         <v>121</v>
       </c>
       <c r="N91" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O91" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>438</v>
-      </c>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -6079,7 +5807,7 @@
       <c r="G92">
         <v>4543542233</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="2">
         <v>44839</v>
       </c>
       <c r="L92" t="s">
@@ -6089,16 +5817,13 @@
         <v>151</v>
       </c>
       <c r="N92" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O92" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>438</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>288</v>
       </c>
@@ -6117,7 +5842,7 @@
       <c r="G93">
         <v>4543542233</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="2">
         <v>44839</v>
       </c>
       <c r="L93" t="s">
@@ -6127,16 +5852,13 @@
         <v>151</v>
       </c>
       <c r="N93" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O93" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>438</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>290</v>
       </c>
@@ -6155,7 +5877,7 @@
       <c r="G94">
         <v>4543542233</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="2">
         <v>44839</v>
       </c>
       <c r="L94" t="s">
@@ -6165,16 +5887,13 @@
         <v>151</v>
       </c>
       <c r="N94" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O94" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>438</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>292</v>
       </c>
@@ -6193,7 +5912,7 @@
       <c r="G95">
         <v>4543542233</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="2">
         <v>44839</v>
       </c>
       <c r="L95" t="s">
@@ -6203,16 +5922,13 @@
         <v>151</v>
       </c>
       <c r="N95" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O95" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>438</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>294</v>
       </c>
@@ -6231,7 +5947,7 @@
       <c r="G96">
         <v>4543542233</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="2">
         <v>44839</v>
       </c>
       <c r="L96" t="s">
@@ -6241,16 +5957,13 @@
         <v>151</v>
       </c>
       <c r="N96" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O96" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>438</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>296</v>
       </c>
@@ -6269,7 +5982,7 @@
       <c r="G97">
         <v>2123123122</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="2">
         <v>44839</v>
       </c>
       <c r="L97" t="s">
@@ -6279,16 +5992,13 @@
         <v>185</v>
       </c>
       <c r="N97" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O97" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>438</v>
-      </c>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>298</v>
       </c>
@@ -6307,7 +6017,7 @@
       <c r="G98">
         <v>2123123122</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="2">
         <v>44839</v>
       </c>
       <c r="L98" t="s">
@@ -6317,16 +6027,13 @@
         <v>185</v>
       </c>
       <c r="N98" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O98" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>438</v>
-      </c>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>300</v>
       </c>
@@ -6345,7 +6052,7 @@
       <c r="G99">
         <v>2123123122</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="2">
         <v>44839</v>
       </c>
       <c r="L99" t="s">
@@ -6355,16 +6062,13 @@
         <v>185</v>
       </c>
       <c r="N99" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O99" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>438</v>
-      </c>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>302</v>
       </c>
@@ -6383,7 +6087,7 @@
       <c r="G100">
         <v>2123123122</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="2">
         <v>44839</v>
       </c>
       <c r="L100" t="s">
@@ -6393,16 +6097,13 @@
         <v>185</v>
       </c>
       <c r="N100" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O100" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>438</v>
-      </c>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>304</v>
       </c>
@@ -6421,7 +6122,7 @@
       <c r="G101">
         <v>2123123122</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="2">
         <v>44839</v>
       </c>
       <c r="L101" t="s">
@@ -6431,16 +6132,13 @@
         <v>185</v>
       </c>
       <c r="N101" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O101" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>438</v>
-      </c>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>306</v>
       </c>
@@ -6459,7 +6157,7 @@
       <c r="G102">
         <v>2123123122</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="2">
         <v>44839</v>
       </c>
       <c r="L102" t="s">
@@ -6469,16 +6167,13 @@
         <v>309</v>
       </c>
       <c r="N102" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O102" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>438</v>
-      </c>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>310</v>
       </c>
@@ -6497,7 +6192,7 @@
       <c r="G103">
         <v>2123123122</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="2">
         <v>44839</v>
       </c>
       <c r="L103" t="s">
@@ -6507,16 +6202,13 @@
         <v>309</v>
       </c>
       <c r="N103" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O103" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>438</v>
-      </c>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>312</v>
       </c>
@@ -6535,7 +6227,7 @@
       <c r="G104">
         <v>2123123122</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="2">
         <v>44839</v>
       </c>
       <c r="L104" t="s">
@@ -6545,16 +6237,13 @@
         <v>309</v>
       </c>
       <c r="N104" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O104" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>438</v>
-      </c>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>314</v>
       </c>
@@ -6573,7 +6262,7 @@
       <c r="G105">
         <v>2123123122</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="2">
         <v>44839</v>
       </c>
       <c r="L105" t="s">
@@ -6583,16 +6272,13 @@
         <v>309</v>
       </c>
       <c r="N105" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O105" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>438</v>
-      </c>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>316</v>
       </c>
@@ -6611,7 +6297,7 @@
       <c r="G106">
         <v>2123123122</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="2">
         <v>44839</v>
       </c>
       <c r="L106" t="s">
@@ -6621,16 +6307,13 @@
         <v>309</v>
       </c>
       <c r="N106" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O106" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>438</v>
-      </c>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>318</v>
       </c>
@@ -6649,7 +6332,7 @@
       <c r="G107">
         <v>2222222002</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="2">
         <v>44839</v>
       </c>
       <c r="L107" t="s">
@@ -6659,16 +6342,13 @@
         <v>217</v>
       </c>
       <c r="N107" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O107" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>438</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>321</v>
       </c>
@@ -6687,7 +6367,7 @@
       <c r="G108">
         <v>2222222002</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="2">
         <v>44839</v>
       </c>
       <c r="L108" t="s">
@@ -6697,16 +6377,13 @@
         <v>217</v>
       </c>
       <c r="N108" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O108" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>438</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>324</v>
       </c>
@@ -6725,7 +6402,7 @@
       <c r="G109">
         <v>2222222002</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="2">
         <v>44839</v>
       </c>
       <c r="L109" t="s">
@@ -6735,16 +6412,13 @@
         <v>217</v>
       </c>
       <c r="N109" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O109" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>438</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>327</v>
       </c>
@@ -6763,7 +6437,7 @@
       <c r="G110">
         <v>2222222002</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="2">
         <v>44839</v>
       </c>
       <c r="L110" t="s">
@@ -6773,16 +6447,13 @@
         <v>217</v>
       </c>
       <c r="N110" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O110" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>438</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>330</v>
       </c>
@@ -6801,7 +6472,7 @@
       <c r="G111">
         <v>2222222002</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="2">
         <v>44839</v>
       </c>
       <c r="L111" t="s">
@@ -6811,96 +6482,81 @@
         <v>217</v>
       </c>
       <c r="N111" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O111" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>438</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C112" t="s">
         <v>77</v>
       </c>
       <c r="D112" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E112" t="s">
         <v>182</v>
       </c>
-      <c r="H112" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="H112" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>438</v>
-      </c>
-      <c r="B113" t="s">
-        <v>444</v>
       </c>
       <c r="C113" t="s">
         <v>77</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E113" t="s">
         <v>182</v>
       </c>
-      <c r="H113" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>438</v>
-      </c>
+      <c r="H113" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C114" t="s">
         <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E114" t="s">
         <v>182</v>
       </c>
-      <c r="H114" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>438</v>
-      </c>
+      <c r="H114" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C115" t="s">
         <v>77</v>
       </c>
       <c r="D115" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E115" t="s">
         <v>182</v>
       </c>
-      <c r="H115" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>438</v>
-      </c>
+      <c r="H115" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>333</v>
       </c>
@@ -6913,14 +6569,11 @@
       <c r="E116" t="s">
         <v>85</v>
       </c>
-      <c r="H116" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>438</v>
-      </c>
+      <c r="H116" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>335</v>
       </c>
@@ -6933,14 +6586,11 @@
       <c r="E117" t="s">
         <v>85</v>
       </c>
-      <c r="H117" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>438</v>
-      </c>
+      <c r="H117" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>337</v>
       </c>
@@ -6953,14 +6603,11 @@
       <c r="E118" t="s">
         <v>85</v>
       </c>
-      <c r="H118" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>438</v>
-      </c>
+      <c r="H118" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>339</v>
       </c>
@@ -6973,14 +6620,11 @@
       <c r="E119" t="s">
         <v>85</v>
       </c>
-      <c r="H119" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>438</v>
-      </c>
+      <c r="H119" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>341</v>
       </c>
@@ -6993,14 +6637,11 @@
       <c r="E120" t="s">
         <v>85</v>
       </c>
-      <c r="H120" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>438</v>
-      </c>
+      <c r="H120" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>343</v>
       </c>
@@ -7013,14 +6654,11 @@
       <c r="E121" t="s">
         <v>118</v>
       </c>
-      <c r="H121" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>438</v>
-      </c>
+      <c r="H121" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>345</v>
       </c>
@@ -7033,14 +6671,11 @@
       <c r="E122" t="s">
         <v>118</v>
       </c>
-      <c r="H122" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>438</v>
-      </c>
+      <c r="H122" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>346</v>
       </c>
@@ -7053,14 +6688,11 @@
       <c r="E123" t="s">
         <v>118</v>
       </c>
-      <c r="H123" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>438</v>
-      </c>
+      <c r="H123" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>347</v>
       </c>
@@ -7073,14 +6705,11 @@
       <c r="E124" t="s">
         <v>118</v>
       </c>
-      <c r="H124" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>438</v>
-      </c>
+      <c r="H124" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>348</v>
       </c>
@@ -7093,14 +6722,11 @@
       <c r="E125" t="s">
         <v>118</v>
       </c>
-      <c r="H125" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>438</v>
-      </c>
+      <c r="H125" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>349</v>
       </c>
@@ -7113,14 +6739,11 @@
       <c r="E126" t="s">
         <v>49</v>
       </c>
-      <c r="H126" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>438</v>
-      </c>
+      <c r="H126" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>350</v>
       </c>
@@ -7133,14 +6756,11 @@
       <c r="E127" t="s">
         <v>49</v>
       </c>
-      <c r="H127" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>438</v>
-      </c>
+      <c r="H127" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>351</v>
       </c>
@@ -7153,14 +6773,11 @@
       <c r="E128" t="s">
         <v>49</v>
       </c>
-      <c r="H128" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>438</v>
-      </c>
+      <c r="H128" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>352</v>
       </c>
@@ -7173,14 +6790,11 @@
       <c r="E129" t="s">
         <v>49</v>
       </c>
-      <c r="H129" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>438</v>
-      </c>
+      <c r="H129" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>353</v>
       </c>
@@ -7193,14 +6807,11 @@
       <c r="E130" t="s">
         <v>85</v>
       </c>
-      <c r="H130" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>438</v>
-      </c>
+      <c r="H130" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>354</v>
       </c>
@@ -7213,14 +6824,11 @@
       <c r="E131" t="s">
         <v>85</v>
       </c>
-      <c r="H131" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>438</v>
-      </c>
+      <c r="H131" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>355</v>
       </c>
@@ -7233,14 +6841,11 @@
       <c r="E132" t="s">
         <v>85</v>
       </c>
-      <c r="H132" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>438</v>
-      </c>
+      <c r="H132" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>356</v>
       </c>
@@ -7253,14 +6858,11 @@
       <c r="E133" t="s">
         <v>85</v>
       </c>
-      <c r="H133" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>438</v>
-      </c>
+      <c r="H133" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>357</v>
       </c>
@@ -7273,14 +6875,11 @@
       <c r="E134" t="s">
         <v>85</v>
       </c>
-      <c r="H134" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>438</v>
-      </c>
+      <c r="H134" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>358</v>
       </c>
@@ -7293,14 +6892,11 @@
       <c r="E135" t="s">
         <v>85</v>
       </c>
-      <c r="H135" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>438</v>
-      </c>
+      <c r="H135" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>359</v>
       </c>
@@ -7313,14 +6909,11 @@
       <c r="E136" t="s">
         <v>85</v>
       </c>
-      <c r="H136" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>438</v>
-      </c>
+      <c r="H136" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>360</v>
       </c>
@@ -7333,14 +6926,11 @@
       <c r="E137" t="s">
         <v>118</v>
       </c>
-      <c r="H137" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>438</v>
-      </c>
+      <c r="H137" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>361</v>
       </c>
@@ -7353,14 +6943,11 @@
       <c r="E138" t="s">
         <v>118</v>
       </c>
-      <c r="H138" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>438</v>
-      </c>
+      <c r="H138" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>362</v>
       </c>
@@ -7373,14 +6960,11 @@
       <c r="E139" t="s">
         <v>118</v>
       </c>
-      <c r="H139" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>438</v>
-      </c>
+      <c r="H139" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>363</v>
       </c>
@@ -7393,11 +6977,14 @@
       <c r="E140" t="s">
         <v>118</v>
       </c>
-      <c r="H140" s="3">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H140" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>432</v>
+      </c>
       <c r="B141" t="s">
         <v>364</v>
       </c>
@@ -7414,7 +7001,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>432</v>
+      </c>
       <c r="B142" t="s">
         <v>367</v>
       </c>
@@ -7428,7 +7018,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>432</v>
+      </c>
       <c r="B143" t="s">
         <v>368</v>
       </c>
@@ -7442,7 +7035,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>432</v>
+      </c>
       <c r="B144" t="s">
         <v>369</v>
       </c>
@@ -7459,7 +7055,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>432</v>
+      </c>
       <c r="B145" t="s">
         <v>371</v>
       </c>
@@ -7473,7 +7072,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>432</v>
+      </c>
       <c r="B146" t="s">
         <v>372</v>
       </c>
@@ -7490,7 +7092,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>432</v>
+      </c>
       <c r="B147" t="s">
         <v>374</v>
       </c>
@@ -7504,7 +7109,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>432</v>
+      </c>
       <c r="B148" t="s">
         <v>376</v>
       </c>
@@ -7521,7 +7129,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>432</v>
+      </c>
       <c r="B149" t="s">
         <v>378</v>
       </c>
@@ -7535,7 +7146,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>432</v>
+      </c>
       <c r="B150" t="s">
         <v>379</v>
       </c>
@@ -7552,7 +7166,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>432</v>
+      </c>
       <c r="B151" t="s">
         <v>382</v>
       </c>
@@ -7569,7 +7186,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>432</v>
+      </c>
       <c r="B152" t="s">
         <v>383</v>
       </c>
@@ -7586,7 +7206,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>432</v>
+      </c>
       <c r="B153" t="s">
         <v>384</v>
       </c>
@@ -7600,7 +7223,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>432</v>
+      </c>
       <c r="B154" t="s">
         <v>386</v>
       </c>
@@ -7614,7 +7240,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>432</v>
+      </c>
       <c r="B155" t="s">
         <v>387</v>
       </c>
@@ -7628,7 +7257,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>432</v>
+      </c>
       <c r="B156" t="s">
         <v>388</v>
       </c>
@@ -7645,7 +7277,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>432</v>
+      </c>
       <c r="B157" t="s">
         <v>390</v>
       </c>
@@ -7659,7 +7294,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>432</v>
+      </c>
       <c r="B158" t="s">
         <v>391</v>
       </c>
@@ -7673,7 +7311,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>432</v>
+      </c>
       <c r="B159" t="s">
         <v>392</v>
       </c>
@@ -7690,7 +7331,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>432</v>
+      </c>
       <c r="B160" t="s">
         <v>394</v>
       </c>
@@ -7707,7 +7351,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>432</v>
+      </c>
       <c r="B161" t="s">
         <v>395</v>
       </c>
@@ -7725,25 +7372,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D5E611-8B8F-4486-BF73-B1EBC686E199}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>403</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>